--- a/store/src/main/resources/static/wechat功能设计.xlsx
+++ b/store/src/main/resources/static/wechat功能设计.xlsx
@@ -16,9 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>wechat_user(</t>
     </r>
     <r>
@@ -69,6 +75,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户openid，主键，唯一</t>
     </r>
     <r>
@@ -211,6 +223,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>wechat_user_like_music(</t>
     </r>
     <r>
@@ -234,6 +252,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>wechat_user_comment_music(</t>
     </r>
     <r>
@@ -260,6 +284,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>音乐</t>
     </r>
     <r>
@@ -274,6 +304,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>int(</t>
     </r>
     <r>
@@ -297,6 +333,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>音乐</t>
     </r>
     <r>
@@ -332,6 +374,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>评论</t>
     </r>
     <r>
@@ -358,6 +406,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户</t>
     </r>
     <r>
@@ -383,7 +437,16 @@
     <t>音乐地址</t>
   </si>
   <si>
-    <r>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>音乐地址</t>
     </r>
     <r>
@@ -454,6 +517,9 @@
     <t>歌手图片地址</t>
   </si>
   <si>
+    <t>varchar(120)</t>
+  </si>
+  <si>
     <t>laud_sum</t>
   </si>
   <si>
@@ -473,6 +539,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>是否精选歌曲</t>
     </r>
     <r>
@@ -538,6 +610,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>喜欢个数，默认为</t>
     </r>
     <r>
@@ -567,6 +645,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>评论个数，默认为</t>
     </r>
     <r>
@@ -590,7 +674,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,12 +706,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -642,6 +720,128 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,155 +855,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +902,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -842,96 +1064,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -939,78 +1071,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,17 +1099,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,6 +1119,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,9 +1155,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,194 +1174,177 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1298,7 +1358,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1307,16 +1367,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1668,7 +1725,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15:Q15"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1746,7 +1803,7 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1780,7 +1837,7 @@
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1797,7 +1854,7 @@
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1805,7 +1862,7 @@
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1814,7 +1871,7 @@
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1831,7 +1888,7 @@
       <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1848,7 +1905,7 @@
       <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1882,7 +1939,7 @@
       <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1899,16 +1956,16 @@
       <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" ht="25.5" spans="1:17">
       <c r="A15" s="1" t="s">
@@ -2040,7 +2097,7 @@
       <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -2055,7 +2112,7 @@
       <c r="J18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>58</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -2070,7 +2127,7 @@
       <c r="P18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="Q18" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2082,19 +2139,19 @@
         <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>20</v>
@@ -2103,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>47</v>
@@ -2123,25 +2180,25 @@
     </row>
     <row r="20" ht="15" spans="1:17">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>66</v>
+      <c r="E20" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>20</v>
@@ -2150,15 +2207,15 @@
         <v>9</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:17">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -2166,14 +2223,14 @@
       <c r="D21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>70</v>
+      <c r="E21" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>36</v>
@@ -2182,30 +2239,30 @@
         <v>9</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="1:17">
       <c r="A22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>75</v>
+      <c r="E22" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>39</v>
@@ -2213,33 +2270,33 @@
       <c r="P22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="11" t="s">
-        <v>78</v>
+      <c r="Q22" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>82</v>
+      <c r="E23" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>39</v>
@@ -2247,16 +2304,16 @@
       <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>85</v>
+      <c r="E24" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
@@ -2265,15 +2322,15 @@
         <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
